--- a/data/trans_orig/IP22D1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22D1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30BEDFE9-2CC5-4195-938A-7D25CD2D818F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C8C7F21-CDED-47BE-BCB8-956806B92595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8476522-4D35-48C8-948C-02E542493E81}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{69F29A95-490F-4063-8502-E143B915F7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
     <t>96,14%</t>
   </si>
   <si>
-    <t>86,74%</t>
+    <t>85,59%</t>
   </si>
   <si>
     <t>95,75%</t>
@@ -119,13 +119,13 @@
     <t>97,92%</t>
   </si>
   <si>
-    <t>92,12%</t>
+    <t>92,96%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>13,26%</t>
+    <t>14,41%</t>
   </si>
   <si>
     <t>4,25%</t>
@@ -134,7 +134,7 @@
     <t>2,08%</t>
   </si>
   <si>
-    <t>7,88%</t>
+    <t>7,04%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -161,7 +161,7 @@
     <t>97,28%</t>
   </si>
   <si>
-    <t>89,33%</t>
+    <t>91,12%</t>
   </si>
   <si>
     <t>97,01%</t>
@@ -170,13 +170,13 @@
     <t>98,57%</t>
   </si>
   <si>
-    <t>95,25%</t>
+    <t>94,53%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>10,67%</t>
+    <t>8,88%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -185,7 +185,7 @@
     <t>1,43%</t>
   </si>
   <si>
-    <t>4,75%</t>
+    <t>5,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -600,7 +600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC47AF9-712A-41E0-B7AD-B2288755A908}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9108BE6-C28D-476C-918C-1325C4DBAFD4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP22D1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22D1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C8C7F21-CDED-47BE-BCB8-956806B92595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BB8ECB1-36D8-4DCD-83B2-BA7491B9FA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{69F29A95-490F-4063-8502-E143B915F7AF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4A1B0F6A-0FBE-45D5-A2F1-113E5FA3EE97}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores que, necesitándolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,15 +74,15 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>73,58%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
     <t>84,31%</t>
   </si>
   <si>
@@ -95,97 +95,97 @@
     <t>0%</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
     <t>15,69%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>87,39%</t>
+  </si>
+  <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
     <t>92,94%</t>
   </si>
   <si>
+    <t>12,61%</t>
+  </si>
+  <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
     <t>7,06%</t>
   </si>
   <si>
+    <t>97,01%</t>
+  </si>
+  <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>89,8%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>94,53%</t>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>10,2%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>5,47%</t>
+    <t>5,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -600,7 +600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9108BE6-C28D-476C-918C-1325C4DBAFD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9BA2C9-9C49-4F7B-858E-39A44130DB64}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -718,10 +718,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>5129</v>
+        <v>8192</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -733,10 +733,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>4739</v>
+        <v>5658</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>9868</v>
+        <v>13850</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -820,25 +820,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8192</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
-        <v>5129</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
       <c r="I6" s="7">
-        <v>4739</v>
+        <v>5658</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -853,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>9868</v>
+        <v>13850</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -876,37 +876,37 @@
         <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>33524</v>
+        <v>30211</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
       </c>
       <c r="I7" s="7">
-        <v>29717</v>
+        <v>35412</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
       </c>
       <c r="N7" s="7">
-        <v>63241</v>
+        <v>65623</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
@@ -924,31 +924,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
-        <v>1345</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>1448</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -957,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1345</v>
+        <v>1448</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
@@ -975,25 +975,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30211</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>46</v>
       </c>
-      <c r="D9" s="7">
-        <v>34869</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
       <c r="I9" s="7">
-        <v>29717</v>
+        <v>36860</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1008,7 +1008,7 @@
         <v>90</v>
       </c>
       <c r="N9" s="7">
-        <v>64586</v>
+        <v>67071</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1028,10 +1028,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>9418</v>
+        <v>9763</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1043,10 +1043,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>9905</v>
+        <v>10754</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1061,7 +1061,7 @@
         <v>26</v>
       </c>
       <c r="N10" s="7">
-        <v>19323</v>
+        <v>20517</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -1130,25 +1130,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9763</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>12</v>
       </c>
-      <c r="D12" s="7">
-        <v>9418</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>14</v>
-      </c>
       <c r="I12" s="7">
-        <v>9905</v>
+        <v>10754</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1163,7 +1163,7 @@
         <v>26</v>
       </c>
       <c r="N12" s="7">
-        <v>19323</v>
+        <v>20517</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1183,40 +1183,40 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>63</v>
+      </c>
+      <c r="D13" s="7">
+        <v>48166</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>62</v>
       </c>
-      <c r="D13" s="7">
-        <v>48072</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>51824</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7">
-        <v>63</v>
-      </c>
-      <c r="I13" s="7">
-        <v>44360</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
         <v>125</v>
       </c>
       <c r="N13" s="7">
-        <v>92432</v>
+        <v>99990</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>43</v>
@@ -1234,31 +1234,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
-        <v>1345</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>1448</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>47</v>
@@ -1267,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1345</v>
+        <v>1448</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>48</v>
@@ -1285,25 +1285,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>63</v>
+      </c>
+      <c r="D15" s="7">
+        <v>48166</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>64</v>
       </c>
-      <c r="D15" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>63</v>
-      </c>
       <c r="I15" s="7">
-        <v>44360</v>
+        <v>53272</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1318,7 +1318,7 @@
         <v>127</v>
       </c>
       <c r="N15" s="7">
-        <v>93777</v>
+        <v>101438</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
